--- a/scripts/tests/input/MARCO-BOLO_Metadata_Dataset_Record_WP5.xlsx
+++ b/scripts/tests/input/MARCO-BOLO_Metadata_Dataset_Record_WP5.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1082">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>County of the agent's address. Use the ISO 2-letter code (https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2)</t>
+  </si>
+  <si>
+    <t>EVDescription-Biology and Ecosystems</t>
   </si>
   <si>
     <t>Task511_dataset1</t>
@@ -9673,7 +9676,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>31</v>
@@ -9736,22 +9739,22 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" s="10"/>
       <c r="U2" s="40"/>
@@ -9759,22 +9762,22 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H3" s="10"/>
       <c r="U3" s="40"/>
@@ -9782,22 +9785,22 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H4" s="10"/>
       <c r="U4" s="40"/>
@@ -9805,22 +9808,22 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H5" s="10"/>
       <c r="U5" s="40"/>
@@ -9828,22 +9831,22 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="10"/>
       <c r="U6" s="40"/>
@@ -9851,22 +9854,22 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="10"/>
       <c r="U7" s="40"/>
@@ -9874,22 +9877,22 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="10"/>
       <c r="U8" s="40"/>
@@ -9897,22 +9900,22 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H9" s="10"/>
       <c r="U9" s="40"/>
@@ -9920,22 +9923,22 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H10" s="10"/>
       <c r="U10" s="40"/>
@@ -9943,22 +9946,22 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" s="10"/>
       <c r="U11" s="40"/>
@@ -9966,22 +9969,22 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H12" s="10"/>
       <c r="U12" s="40"/>
@@ -9989,22 +9992,22 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" s="10"/>
       <c r="U13" s="40"/>
@@ -10012,22 +10015,22 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="10"/>
       <c r="U14" s="40"/>
@@ -10035,22 +10038,22 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" s="10"/>
       <c r="U15" s="40"/>
@@ -10058,22 +10061,22 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H16" s="10"/>
       <c r="U16" s="40"/>
@@ -10081,22 +10084,22 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="10"/>
       <c r="U17" s="40"/>
@@ -10104,22 +10107,22 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="10"/>
       <c r="U18" s="40"/>
@@ -10127,22 +10130,22 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="10"/>
       <c r="U19" s="40"/>
@@ -10150,22 +10153,22 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="10"/>
       <c r="U20" s="40"/>
@@ -10173,22 +10176,22 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="10"/>
       <c r="U21" s="40"/>
@@ -10196,22 +10199,22 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="10"/>
       <c r="U22" s="40"/>
@@ -10219,22 +10222,22 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="10"/>
       <c r="U23" s="40"/>
@@ -10242,22 +10245,22 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="10"/>
       <c r="U24" s="40"/>
@@ -10265,22 +10268,22 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" s="10"/>
       <c r="U25" s="40"/>
@@ -10288,22 +10291,22 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H26" s="10"/>
       <c r="U26" s="40"/>
@@ -10311,22 +10314,22 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H27" s="10"/>
       <c r="U27" s="40"/>
@@ -10334,22 +10337,22 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="10"/>
       <c r="U28" s="40"/>
@@ -10357,22 +10360,22 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="10"/>
       <c r="U29" s="40"/>
@@ -10380,22 +10383,22 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" s="10"/>
       <c r="U30" s="40"/>
@@ -10403,22 +10406,22 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H31" s="10"/>
       <c r="U31" s="40"/>
@@ -10426,22 +10429,22 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32" s="10"/>
       <c r="U32" s="40"/>
@@ -10449,22 +10452,22 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" s="10"/>
       <c r="U33" s="40"/>
@@ -10472,22 +10475,22 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" s="10"/>
       <c r="U34" s="40"/>
@@ -10495,22 +10498,22 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H35" s="10"/>
       <c r="U35" s="40"/>
@@ -10518,22 +10521,22 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H36" s="10"/>
       <c r="U36" s="40"/>
@@ -10541,22 +10544,22 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H37" s="10"/>
       <c r="U37" s="40"/>
@@ -10564,22 +10567,22 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H38" s="10"/>
       <c r="U38" s="40"/>
@@ -10587,22 +10590,22 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H39" s="10"/>
       <c r="U39" s="40"/>
@@ -10610,22 +10613,22 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40" s="10"/>
       <c r="U40" s="40"/>
@@ -10633,22 +10636,22 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H41" s="10"/>
       <c r="U41" s="40"/>
@@ -10656,22 +10659,22 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" s="10"/>
       <c r="U42" s="40"/>
@@ -10679,22 +10682,22 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43" s="10"/>
       <c r="U43" s="40"/>
@@ -10702,22 +10705,22 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H44" s="10"/>
       <c r="U44" s="40"/>
@@ -10725,22 +10728,22 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45" s="10"/>
       <c r="U45" s="40"/>
@@ -10748,22 +10751,22 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46" s="10"/>
       <c r="U46" s="40"/>
@@ -10771,22 +10774,22 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47" s="10"/>
       <c r="U47" s="40"/>
@@ -10794,22 +10797,22 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H48" s="10"/>
       <c r="U48" s="40"/>
@@ -10817,22 +10820,22 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H49" s="10"/>
       <c r="U49" s="40"/>
@@ -10840,22 +10843,22 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H50" s="10"/>
       <c r="U50" s="40"/>
@@ -10863,22 +10866,22 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H51" s="10"/>
       <c r="U51" s="40"/>
@@ -10886,22 +10889,22 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H52" s="10"/>
       <c r="U52" s="40"/>
@@ -10909,22 +10912,22 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H53" s="10"/>
       <c r="U53" s="40"/>
@@ -10932,22 +10935,22 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H54" s="10"/>
       <c r="U54" s="40"/>
@@ -10955,22 +10958,22 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H55" s="10"/>
       <c r="U55" s="40"/>
@@ -10978,22 +10981,22 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H56" s="10"/>
       <c r="U56" s="40"/>
@@ -11001,22 +11004,22 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H57" s="10"/>
       <c r="U57" s="40"/>
@@ -11024,22 +11027,22 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H58" s="10"/>
       <c r="U58" s="40"/>
@@ -11047,22 +11050,22 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" s="10"/>
       <c r="U59" s="40"/>
@@ -11070,22 +11073,22 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H60" s="10"/>
       <c r="U60" s="40"/>
@@ -11093,22 +11096,22 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H61" s="10"/>
       <c r="U61" s="40"/>
@@ -11116,22 +11119,22 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H62" s="10"/>
       <c r="U62" s="40"/>
@@ -11139,22 +11142,22 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H63" s="10"/>
       <c r="U63" s="40"/>
@@ -11162,22 +11165,22 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" s="10"/>
       <c r="U64" s="40"/>
@@ -11185,22 +11188,22 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H65" s="10"/>
       <c r="U65" s="40"/>
@@ -11208,22 +11211,22 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H66" s="10"/>
       <c r="U66" s="40"/>
@@ -11231,22 +11234,22 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H67" s="10"/>
       <c r="U67" s="40"/>
@@ -11254,22 +11257,22 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H68" s="10"/>
       <c r="U68" s="40"/>
@@ -11277,22 +11280,22 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H69" s="10"/>
       <c r="U69" s="40"/>
@@ -11300,22 +11303,22 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H70" s="10"/>
       <c r="U70" s="40"/>
@@ -11323,22 +11326,22 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H71" s="10"/>
       <c r="U71" s="40"/>
@@ -11346,22 +11349,22 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H72" s="10"/>
       <c r="U72" s="40"/>
@@ -11369,22 +11372,22 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H73" s="10"/>
       <c r="U73" s="40"/>
@@ -11392,22 +11395,22 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H74" s="10"/>
       <c r="U74" s="40"/>
@@ -11415,22 +11418,22 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H75" s="10"/>
       <c r="U75" s="40"/>
@@ -11438,22 +11441,22 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H76" s="10"/>
       <c r="U76" s="40"/>
@@ -11461,22 +11464,22 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H77" s="10"/>
       <c r="U77" s="40"/>
@@ -11484,22 +11487,22 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H78" s="10"/>
       <c r="U78" s="40"/>
@@ -11507,22 +11510,22 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H79" s="10"/>
       <c r="U79" s="40"/>
@@ -11530,22 +11533,22 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H80" s="10"/>
       <c r="U80" s="40"/>
@@ -11553,22 +11556,22 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H81" s="10"/>
       <c r="U81" s="40"/>
@@ -11576,22 +11579,22 @@
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H82" s="10"/>
       <c r="U82" s="40"/>
@@ -11599,22 +11602,22 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H83" s="10"/>
       <c r="U83" s="40"/>
@@ -11622,19 +11625,19 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G84" s="39"/>
       <c r="H84" s="10"/>
@@ -11643,22 +11646,22 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H85" s="10"/>
       <c r="U85" s="40"/>
@@ -11666,22 +11669,22 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H86" s="10"/>
       <c r="U86" s="40"/>
@@ -11689,22 +11692,22 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H87" s="10"/>
       <c r="U87" s="40"/>
@@ -11712,19 +11715,19 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="36" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G88" s="39"/>
       <c r="H88" s="10"/>
@@ -11733,19 +11736,19 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G89" s="39"/>
       <c r="H89" s="10"/>
@@ -11754,22 +11757,22 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H90" s="10"/>
       <c r="U90" s="40"/>
@@ -11777,22 +11780,22 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="36" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H91" s="10"/>
       <c r="U91" s="40"/>
@@ -11800,22 +11803,22 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H92" s="10"/>
       <c r="U92" s="40"/>
@@ -11823,22 +11826,22 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H93" s="10"/>
       <c r="U93" s="40"/>
@@ -11846,22 +11849,22 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="36" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H94" s="10"/>
       <c r="U94" s="40"/>
@@ -11869,22 +11872,22 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="36" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H95" s="10"/>
       <c r="U95" s="40"/>
@@ -11892,22 +11895,22 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="36" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H96" s="10"/>
       <c r="U96" s="40"/>
@@ -11915,22 +11918,22 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="36" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H97" s="10"/>
       <c r="U97" s="40"/>
@@ -11938,22 +11941,22 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H98" s="10"/>
       <c r="U98" s="40"/>
@@ -11961,22 +11964,22 @@
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H99" s="10"/>
       <c r="U99" s="40"/>
@@ -11984,22 +11987,22 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D100" s="37" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H100" s="10"/>
       <c r="U100" s="40"/>
@@ -12007,22 +12010,22 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H101" s="10"/>
       <c r="U101" s="40"/>
@@ -12030,22 +12033,22 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H102" s="10"/>
       <c r="U102" s="40"/>
@@ -12053,22 +12056,22 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H103" s="10"/>
       <c r="U103" s="40"/>
@@ -12076,22 +12079,22 @@
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="36" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E104" s="38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H104" s="10"/>
       <c r="U104" s="40"/>
@@ -12099,22 +12102,22 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H105" s="10"/>
       <c r="U105" s="40"/>
@@ -12122,22 +12125,22 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E106" s="38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H106" s="10"/>
       <c r="U106" s="40"/>
@@ -12145,22 +12148,22 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H107" s="10"/>
       <c r="U107" s="40"/>
@@ -12168,22 +12171,22 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E108" s="38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G108" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H108" s="10"/>
       <c r="U108" s="40"/>
@@ -12191,19 +12194,19 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G109" s="39"/>
       <c r="H109" s="10"/>
@@ -12212,19 +12215,19 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G110" s="39"/>
       <c r="H110" s="10"/>
@@ -12233,19 +12236,19 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G111" s="39"/>
       <c r="H111" s="10"/>
@@ -12254,22 +12257,22 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H112" s="10"/>
       <c r="U112" s="40"/>
@@ -12277,22 +12280,22 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E113" s="38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H113" s="10"/>
       <c r="U113" s="40"/>
@@ -12300,19 +12303,19 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E114" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G114" s="39"/>
       <c r="H114" s="10"/>
@@ -12321,22 +12324,22 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H115" s="10"/>
       <c r="U115" s="40"/>
@@ -12344,22 +12347,22 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E116" s="38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H116" s="10"/>
       <c r="U116" s="40"/>
@@ -12367,22 +12370,22 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H117" s="10"/>
       <c r="U117" s="40"/>
@@ -12390,22 +12393,22 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="36" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D118" s="37" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E118" s="38" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H118" s="10"/>
       <c r="U118" s="40"/>
@@ -12413,22 +12416,22 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G119" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H119" s="10"/>
       <c r="U119" s="40"/>
@@ -12436,22 +12439,22 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E120" s="38" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G120" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H120" s="10"/>
       <c r="U120" s="40"/>
@@ -12459,22 +12462,22 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G121" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H121" s="10"/>
       <c r="U121" s="40"/>
@@ -12482,22 +12485,22 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D122" s="41" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H122" s="10"/>
       <c r="U122" s="40"/>
@@ -12505,22 +12508,22 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H123" s="10"/>
       <c r="U123" s="40"/>
@@ -12528,22 +12531,22 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="36" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D124" s="41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H124" s="10"/>
       <c r="U124" s="40"/>
@@ -12551,22 +12554,22 @@
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="36" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H125" s="10"/>
       <c r="U125" s="40"/>
@@ -12574,22 +12577,22 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H126" s="10"/>
       <c r="U126" s="40"/>
@@ -12597,19 +12600,19 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G127" s="39"/>
       <c r="H127" s="10"/>
@@ -12618,22 +12621,22 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D128" s="41" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E128" s="38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H128" s="10"/>
       <c r="U128" s="40"/>
@@ -12641,22 +12644,22 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E129" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H129" s="10"/>
       <c r="U129" s="40"/>
@@ -12664,19 +12667,19 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E130" s="38" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G130" s="39"/>
       <c r="H130" s="10"/>
@@ -12685,19 +12688,19 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E131" s="38" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G131" s="39"/>
       <c r="H131" s="10"/>
@@ -12706,22 +12709,22 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E132" s="38" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H132" s="10"/>
       <c r="U132" s="40"/>
@@ -12729,22 +12732,22 @@
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E133" s="38" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G133" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H133" s="10"/>
       <c r="U133" s="40"/>
@@ -12752,22 +12755,22 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E134" s="38" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G134" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H134" s="10"/>
       <c r="U134" s="40"/>
@@ -12775,22 +12778,22 @@
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G135" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H135" s="10"/>
       <c r="U135" s="40"/>
@@ -12798,22 +12801,22 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D136" s="43" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E136" s="38" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G136" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H136" s="10"/>
       <c r="U136" s="40"/>
@@ -12821,22 +12824,22 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D137" s="43" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E137" s="38" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G137" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H137" s="10"/>
       <c r="U137" s="40"/>
@@ -12844,19 +12847,19 @@
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E138" s="38" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G138" s="39"/>
       <c r="H138" s="10"/>
@@ -12865,19 +12868,19 @@
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="36" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E139" s="38" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G139" s="39"/>
       <c r="H139" s="10"/>
@@ -12886,19 +12889,19 @@
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G140" s="39"/>
       <c r="H140" s="10"/>
@@ -12907,19 +12910,19 @@
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G141" s="45" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H141" s="10"/>
       <c r="U141" s="40"/>
@@ -12927,19 +12930,19 @@
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="G142" s="45" t="s">
         <v>669</v>
-      </c>
-      <c r="B142" s="36" t="s">
-        <v>665</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>670</v>
-      </c>
-      <c r="D142" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="G142" s="45" t="s">
-        <v>668</v>
       </c>
       <c r="H142" s="10"/>
       <c r="U142" s="40"/>
@@ -12947,19 +12950,19 @@
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D143" s="44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G143" s="45" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H143" s="10"/>
       <c r="U143" s="40"/>
@@ -12967,59 +12970,59 @@
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="46" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B144" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G144" s="48" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="46"/>
       <c r="L144" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M144" s="46" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N144" s="46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O144" s="49" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P144" s="50" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q144" s="10"/>
       <c r="R144" s="46" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="S144" s="46" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T144" s="10"/>
       <c r="U144" s="51">
         <v>41114.0</v>
       </c>
       <c r="V144" s="52" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="W144" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X144" s="10"/>
       <c r="Y144" s="10"/>
@@ -13029,59 +13032,59 @@
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="46" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C145" s="46" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D145" s="46" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G145" s="48" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="46"/>
       <c r="L145" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M145" s="46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N145" s="46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O145" s="49" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P145" s="53" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q145" s="10"/>
       <c r="R145" s="46" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="S145" s="46" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T145" s="10"/>
       <c r="U145" s="54">
         <v>42856.0</v>
       </c>
       <c r="V145" s="52" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="W145" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X145" s="10"/>
       <c r="Y145" s="10"/>
@@ -13091,55 +13094,55 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="46" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D146" s="46" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E146" s="49" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F146" s="46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G146" s="55"/>
       <c r="H146" s="56" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="46" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K146" s="46"/>
       <c r="L146" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M146" s="46" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N146" s="46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O146" s="49" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P146" s="57" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q146" s="46" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="R146" s="46" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="S146" s="46" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T146" s="58">
         <v>7.0</v>
@@ -13148,74 +13151,74 @@
         <v>41114.0</v>
       </c>
       <c r="V146" s="52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="W146" s="59" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X146" s="46" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Y146" s="46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Z146" s="60" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AA146" s="61" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AB146" s="10"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D147" s="46" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E147" s="62" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="55"/>
       <c r="H147" s="56" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="46" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K147" s="46"/>
       <c r="L147" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M147" s="46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N147" s="46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O147" s="49" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P147" s="57" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q147" s="46" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R147" s="46" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="S147" s="46" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T147" s="58">
         <v>5.0</v>
@@ -13224,66 +13227,66 @@
         <v>42856.0</v>
       </c>
       <c r="V147" s="52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="W147" s="59" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X147" s="46" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y147" s="46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Z147" s="46" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AA147" s="63" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AB147" s="64" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="46" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C148" s="65" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G148" s="66" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="46" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J148" s="67" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K148" s="46"/>
       <c r="L148" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M148" s="46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N148" s="46" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O148" s="68" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
@@ -13293,7 +13296,7 @@
       <c r="U148" s="69"/>
       <c r="V148" s="69"/>
       <c r="W148" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
@@ -13303,43 +13306,43 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="46" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C149" s="65" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G149" s="66" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="46" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J149" s="67" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K149" s="46"/>
       <c r="L149" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M149" s="46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N149" s="46" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O149" s="68" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
@@ -13349,7 +13352,7 @@
       <c r="U149" s="69"/>
       <c r="V149" s="69"/>
       <c r="W149" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
@@ -13359,43 +13362,43 @@
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="46" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C150" s="65" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D150" s="46" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G150" s="66" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="46" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J150" s="67" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K150" s="46"/>
       <c r="L150" s="46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M150" s="46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N150" s="46" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O150" s="68" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
@@ -13405,7 +13408,7 @@
       <c r="U150" s="69"/>
       <c r="V150" s="69"/>
       <c r="W150" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
@@ -13415,19 +13418,19 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="70" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B151" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C151" s="71" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D151" s="72" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E151" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F151" s="74"/>
       <c r="G151" s="75"/>
@@ -13455,19 +13458,19 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="70" t="s">
+        <v>741</v>
+      </c>
+      <c r="B152" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" s="71" t="s">
+        <v>742</v>
+      </c>
+      <c r="D152" s="72" t="s">
+        <v>743</v>
+      </c>
+      <c r="E152" s="73" t="s">
         <v>740</v>
-      </c>
-      <c r="B152" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C152" s="71" t="s">
-        <v>741</v>
-      </c>
-      <c r="D152" s="72" t="s">
-        <v>742</v>
-      </c>
-      <c r="E152" s="73" t="s">
-        <v>739</v>
       </c>
       <c r="F152" s="74"/>
       <c r="G152" s="75"/>
@@ -13495,19 +13498,19 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="70" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B153" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C153" s="71" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D153" s="72" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E153" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F153" s="74"/>
       <c r="G153" s="75"/>
@@ -13535,19 +13538,19 @@
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="70" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B154" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C154" s="71" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D154" s="72" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E154" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F154" s="74"/>
       <c r="G154" s="75"/>
@@ -13575,19 +13578,19 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="70" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B155" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C155" s="71" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D155" s="72" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E155" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F155" s="74"/>
       <c r="G155" s="75"/>
@@ -13615,19 +13618,19 @@
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="70" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B156" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C156" s="71" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D156" s="72" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E156" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F156" s="74"/>
       <c r="G156" s="75"/>
@@ -13655,19 +13658,19 @@
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="70" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B157" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C157" s="71" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D157" s="72" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E157" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F157" s="74"/>
       <c r="G157" s="75"/>
@@ -13695,19 +13698,19 @@
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="70" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B158" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C158" s="71" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D158" s="72" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E158" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F158" s="74"/>
       <c r="G158" s="75"/>
@@ -13735,19 +13738,19 @@
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="70" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C159" s="71" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D159" s="72" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E159" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F159" s="74"/>
       <c r="G159" s="75"/>
@@ -13775,19 +13778,19 @@
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="70" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B160" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C160" s="71" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D160" s="72" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E160" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F160" s="74"/>
       <c r="G160" s="75"/>
@@ -13815,19 +13818,19 @@
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="70" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D161" s="72" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E161" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F161" s="74"/>
       <c r="G161" s="75"/>
@@ -13855,19 +13858,19 @@
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="70" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C162" s="71" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D162" s="72" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E162" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F162" s="74"/>
       <c r="G162" s="75"/>
@@ -13895,19 +13898,19 @@
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="70" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C163" s="71" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D163" s="72" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E163" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F163" s="74"/>
       <c r="G163" s="75"/>
@@ -13935,19 +13938,19 @@
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="70" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C164" s="71" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D164" s="72" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E164" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F164" s="74"/>
       <c r="G164" s="75"/>
@@ -13975,19 +13978,19 @@
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="70" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C165" s="71" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D165" s="72" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E165" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F165" s="74"/>
       <c r="G165" s="75"/>
@@ -14015,19 +14018,19 @@
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="70" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C166" s="71" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D166" s="72" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E166" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F166" s="74"/>
       <c r="G166" s="75"/>
@@ -14055,19 +14058,19 @@
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="70" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C167" s="71" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D167" s="72" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E167" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F167" s="74"/>
       <c r="G167" s="75"/>
@@ -14095,19 +14098,19 @@
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="70" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C168" s="71" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D168" s="72" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E168" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F168" s="74"/>
       <c r="G168" s="75"/>
@@ -14135,19 +14138,19 @@
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="70" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B169" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C169" s="71" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D169" s="72" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E169" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F169" s="74"/>
       <c r="G169" s="75"/>
@@ -14175,19 +14178,19 @@
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="70" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B170" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C170" s="71" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D170" s="72" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E170" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F170" s="74"/>
       <c r="G170" s="75"/>
@@ -14215,19 +14218,19 @@
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="70" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B171" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C171" s="71" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D171" s="72" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E171" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F171" s="74"/>
       <c r="G171" s="75"/>
@@ -14255,19 +14258,19 @@
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="70" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B172" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C172" s="71" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D172" s="72" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E172" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F172" s="74"/>
       <c r="G172" s="75"/>
@@ -14295,19 +14298,19 @@
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B173" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C173" s="71" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D173" s="72" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F173" s="74"/>
       <c r="G173" s="75"/>
@@ -14335,19 +14338,19 @@
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="70" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B174" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C174" s="71" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D174" s="72" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E174" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F174" s="74"/>
       <c r="G174" s="75"/>
@@ -14375,19 +14378,19 @@
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B175" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C175" s="71" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D175" s="72" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E175" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F175" s="74"/>
       <c r="G175" s="75"/>
@@ -14415,19 +14418,19 @@
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="70" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B176" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C176" s="71" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D176" s="72" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E176" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F176" s="74"/>
       <c r="G176" s="75"/>
@@ -14455,19 +14458,19 @@
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="70" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B177" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C177" s="71" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D177" s="72" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E177" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F177" s="74"/>
       <c r="G177" s="75"/>
@@ -14495,19 +14498,19 @@
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="70" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B178" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C178" s="71" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D178" s="72" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E178" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F178" s="74"/>
       <c r="G178" s="75"/>
@@ -14535,19 +14538,19 @@
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="70" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B179" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C179" s="71" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D179" s="72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E179" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F179" s="74"/>
       <c r="G179" s="75"/>
@@ -14575,19 +14578,19 @@
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="70" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B180" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C180" s="71" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D180" s="72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E180" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F180" s="74"/>
       <c r="G180" s="75"/>
@@ -14615,19 +14618,19 @@
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="70" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B181" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C181" s="71" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D181" s="72" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E181" s="73" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F181" s="74"/>
       <c r="G181" s="75"/>
@@ -14655,19 +14658,19 @@
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="70" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B182" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C182" s="72" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D182" s="72" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E182" s="77" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F182" s="74"/>
       <c r="G182" s="75"/>
@@ -14695,19 +14698,19 @@
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="70" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B183" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C183" s="72" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D183" s="72" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E183" s="78" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F183" s="74"/>
       <c r="G183" s="75"/>
@@ -14735,19 +14738,19 @@
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="70" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B184" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C184" s="72" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D184" s="79" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E184" s="78" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F184" s="74"/>
       <c r="G184" s="75"/>
@@ -14775,19 +14778,19 @@
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="70" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B185" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C185" s="72" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D185" s="79" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E185" s="78" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F185" s="74"/>
       <c r="G185" s="75"/>
@@ -14815,19 +14818,19 @@
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="36" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B186" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C186" s="80" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D186" s="80" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E186" s="81" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G186" s="82"/>
       <c r="H186" s="10"/>
@@ -14836,19 +14839,19 @@
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="36" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B187" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C187" s="80" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D187" s="80" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E187" s="81" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G187" s="82"/>
       <c r="H187" s="10"/>
@@ -14857,19 +14860,19 @@
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="36" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B188" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C188" s="80" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D188" s="80" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E188" s="81" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G188" s="82"/>
       <c r="H188" s="10"/>
@@ -14878,19 +14881,19 @@
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="36" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B189" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C189" s="80" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D189" s="80" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E189" s="81" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G189" s="82"/>
       <c r="H189" s="10"/>
@@ -14899,19 +14902,19 @@
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="36" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B190" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C190" s="80" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D190" s="80" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E190" s="81" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G190" s="82"/>
       <c r="H190" s="10"/>
@@ -14920,19 +14923,19 @@
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="36" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B191" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C191" s="80" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D191" s="80" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E191" s="81" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G191" s="82"/>
       <c r="H191" s="10"/>
@@ -14941,19 +14944,19 @@
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="36" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B192" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C192" s="80" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D192" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E192" s="81" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G192" s="82"/>
       <c r="H192" s="10"/>
@@ -14962,19 +14965,19 @@
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="36" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B193" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C193" s="80" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D193" s="80" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E193" s="81" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G193" s="82"/>
       <c r="H193" s="10"/>
@@ -14983,19 +14986,19 @@
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="36" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B194" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C194" s="80" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D194" s="80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E194" s="81" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G194" s="82"/>
       <c r="H194" s="10"/>
@@ -15004,19 +15007,19 @@
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="36" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C195" s="80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D195" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E195" s="81" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G195" s="82"/>
       <c r="H195" s="10"/>
@@ -15025,19 +15028,19 @@
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="36" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B196" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C196" s="80" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D196" s="80" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E196" s="81" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G196" s="82"/>
       <c r="H196" s="10"/>
@@ -15046,19 +15049,19 @@
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="36" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C197" s="80" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D197" s="80" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E197" s="81" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G197" s="82"/>
       <c r="H197" s="10"/>
@@ -15067,19 +15070,19 @@
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="36" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C198" s="80" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D198" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E198" s="81" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G198" s="82"/>
       <c r="H198" s="10"/>
@@ -15088,19 +15091,19 @@
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="36" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C199" s="80" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D199" s="80" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E199" s="81" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G199" s="82"/>
       <c r="H199" s="10"/>
@@ -15109,19 +15112,19 @@
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="36" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B200" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C200" s="80" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D200" s="80" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E200" s="81" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G200" s="82"/>
       <c r="H200" s="10"/>
@@ -15130,19 +15133,19 @@
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="36" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B201" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C201" s="80" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D201" s="80" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E201" s="81" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G201" s="82"/>
       <c r="H201" s="10"/>
@@ -15151,19 +15154,19 @@
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="36" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C202" s="80" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D202" s="80" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E202" s="81" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G202" s="82"/>
       <c r="H202" s="10"/>
@@ -15172,19 +15175,19 @@
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="36" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C203" s="80" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D203" s="80" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E203" s="81" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G203" s="82"/>
       <c r="H203" s="10"/>
@@ -15193,19 +15196,19 @@
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="36" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B204" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C204" s="80" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D204" s="80" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E204" s="81" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G204" s="82"/>
       <c r="H204" s="10"/>
@@ -15214,19 +15217,19 @@
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="36" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B205" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C205" s="80" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D205" s="80" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E205" s="81" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G205" s="82"/>
       <c r="H205" s="10"/>
@@ -15235,19 +15238,19 @@
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="36" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B206" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C206" s="80" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D206" s="80" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E206" s="81" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G206" s="82"/>
       <c r="H206" s="10"/>
@@ -15256,19 +15259,19 @@
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="36" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B207" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C207" s="80" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D207" s="80" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E207" s="81" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G207" s="82"/>
       <c r="H207" s="10"/>
@@ -15277,19 +15280,19 @@
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="36" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B208" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C208" s="80" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D208" s="80" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E208" s="81" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G208" s="82"/>
       <c r="H208" s="10"/>
@@ -15298,19 +15301,19 @@
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="36" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B209" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C209" s="80" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D209" s="80" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E209" s="81" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G209" s="82"/>
       <c r="H209" s="10"/>
@@ -15319,19 +15322,19 @@
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="36" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C210" s="80" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D210" s="80" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E210" s="81" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G210" s="82"/>
       <c r="H210" s="10"/>
@@ -15340,19 +15343,19 @@
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="36" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C211" s="80" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D211" s="80" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E211" s="81" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G211" s="82"/>
       <c r="H211" s="10"/>
@@ -15361,19 +15364,19 @@
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="36" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B212" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C212" s="80" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D212" s="80" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E212" s="81" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G212" s="82"/>
       <c r="H212" s="10"/>
@@ -15382,19 +15385,19 @@
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="36" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B213" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C213" s="80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D213" s="80" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E213" s="81" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G213" s="82"/>
       <c r="H213" s="10"/>
@@ -15403,19 +15406,19 @@
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="36" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D214" s="80" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E214" s="81" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G214" s="82"/>
       <c r="H214" s="10"/>
@@ -15424,19 +15427,19 @@
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="36" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C215" s="80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D215" s="80" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E215" s="81" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G215" s="82"/>
       <c r="H215" s="10"/>
@@ -15445,19 +15448,19 @@
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="36" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C216" s="80" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D216" s="80" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E216" s="81" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G216" s="82"/>
       <c r="H216" s="10"/>
@@ -15466,19 +15469,19 @@
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="36" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B217" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C217" s="80" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D217" s="80" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E217" s="81" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G217" s="82"/>
       <c r="H217" s="10"/>
@@ -15487,19 +15490,19 @@
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="36" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B218" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C218" s="80" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D218" s="80" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E218" s="81" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G218" s="82"/>
       <c r="H218" s="10"/>
@@ -15508,19 +15511,19 @@
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="36" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B219" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C219" s="80" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D219" s="80" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E219" s="81" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G219" s="82"/>
       <c r="H219" s="10"/>
@@ -15529,19 +15532,19 @@
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="36" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B220" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C220" s="80" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D220" s="80" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E220" s="81" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G220" s="82"/>
       <c r="H220" s="10"/>
@@ -15550,19 +15553,19 @@
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="A221" s="36" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B221" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C221" s="80" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D221" s="80" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E221" s="81" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G221" s="82"/>
       <c r="H221" s="10"/>
@@ -15571,19 +15574,19 @@
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="36" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B222" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C222" s="80" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D222" s="80" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E222" s="81" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G222" s="82"/>
       <c r="H222" s="10"/>
@@ -15592,19 +15595,19 @@
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="36" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B223" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C223" s="80" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D223" s="80" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E223" s="81" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G223" s="82"/>
       <c r="H223" s="10"/>
@@ -15613,19 +15616,19 @@
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="A224" s="36" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B224" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C224" s="80" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D224" s="80" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E224" s="81" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G224" s="82"/>
       <c r="H224" s="10"/>
@@ -15634,19 +15637,19 @@
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="36" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C225" s="80" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D225" s="80" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E225" s="81" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G225" s="82"/>
       <c r="H225" s="10"/>
@@ -15655,19 +15658,19 @@
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="36" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B226" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C226" s="80" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D226" s="80" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E226" s="81" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G226" s="82"/>
       <c r="H226" s="10"/>
@@ -15676,19 +15679,19 @@
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="36" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C227" s="80" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D227" s="80" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E227" s="81" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G227" s="82"/>
       <c r="H227" s="10"/>
@@ -15697,19 +15700,19 @@
     </row>
     <row r="228" ht="14.25" customHeight="1">
       <c r="A228" s="36" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B228" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D228" s="37" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E228" s="83" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G228" s="82"/>
       <c r="H228" s="10"/>
@@ -15718,19 +15721,19 @@
     </row>
     <row r="229" ht="14.25" customHeight="1">
       <c r="A229" s="36" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C229" s="37" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D229" s="37" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E229" s="83" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G229" s="82"/>
       <c r="H229" s="10"/>
@@ -15739,16 +15742,16 @@
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="36" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C230" s="37" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D230" s="37" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G230" s="82"/>
       <c r="H230" s="10"/>
@@ -21337,26 +21340,26 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -21379,115 +21382,115 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>1029</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C6" s="83" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>1039</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -21510,28 +21513,28 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>1047</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>1046</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -21554,28 +21557,28 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>681</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -21598,28 +21601,28 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -21642,28 +21645,28 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -21686,26 +21689,26 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -21728,28 +21731,28 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F13" s="89" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -21772,28 +21775,28 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F14" s="89" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -21816,28 +21819,28 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
